--- a/biology/Botanique/Taxodium_distichum/Taxodium_distichum.xlsx
+++ b/biology/Botanique/Taxodium_distichum/Taxodium_distichum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cyprès chauve ou cyprès de Louisiane, taxaudier, taxodier (Taxodium distichum) et cipre en français de Louisiane, est une espèce d'arbres, classiquement de la famille des Taxodiaceae mais désormais classé dans celle des Cupressaceae, originaire du sud-est des États-Unis. C'est une espèce remarquable par son adaptation aux milieux humides[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cyprès chauve ou cyprès de Louisiane, taxaudier, taxodier (Taxodium distichum) et cipre en français de Louisiane, est une espèce d'arbres, classiquement de la famille des Taxodiaceae mais désormais classé dans celle des Cupressaceae, originaire du sud-est des États-Unis. C'est une espèce remarquable par son adaptation aux milieux humides.
 </t>
         </is>
       </c>
@@ -511,18 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Appareil végétatif
-Le cyprès chauve est un grand arbre pouvant atteindre 30 à 50 mètres de haut pour un diamètre de tronc de 2 mètres. L'arbre vit de 300 à 500 ans[1].
-Le feuillage léger, gracieux et souple est formé de feuilles claires, aplaties et aciculaires, disposées en spirales sur les rameaux mais tordues à leur base, ce qui les fait paraître disposées en deux rangs aplatis. Elles sont caduques, tombant à la mauvaise saison[1]. Elles développent alors des couleurs orangées remarquables comme sur les photos ci-dessous.
-Les cyprès chauves vivant dans les marais se distinguent par la croissance de racines aériennes particulières, les pneumatophores. Ces organes lignifiés, qui peuvent atteindre 1,7 m de haut, émergent du sol ou de l'eau tout autour du tronc. Leur fonction semble être double. D'une part, ils assurent la fourniture en dioxygène du système racinaire immergé qui risquerait sans cela l'anoxie ; d'autre part ils permettent une meilleure stabilisation et un meilleur ancrage de l'arbre dans le sol très souvent imbibé d'eau[1].
-Appareil reproducteur
-Cette espèce est monoïque : cônes mâles et cônes femelles sont distincts, mais présents sur un même individu.
-Les cônes mâles sont regroupés sur de courts rameaux pendants. Ils sont beaucoup plus petits que les cônes femelles.
-Les cônes femelles immatures, verts, tournent au gris brun à maturité. Ils sont de forme globuleuse et mesurent de 2 à 3,5 cm de diamètre[réf. nécessaire]. Ils se désagrègent une fois tombés sur le sol. Ils sont composés de 10 à 15 écailles abritant chacune une à deux graines[réf. nécessaire]. Le cône femelle mûrit l'année de la fécondation[1].
-Les graines sont les plus grandes (de 5 à 10 mm de long) rencontrées dans la famille des Cupressacées[réf. nécessaire], et sont dispersées dans l'eau.
 </t>
         </is>
       </c>
@@ -548,20 +553,174 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cyprès chauve est un grand arbre pouvant atteindre 30 à 50 mètres de haut pour un diamètre de tronc de 2 mètres. L'arbre vit de 300 à 500 ans.
+Le feuillage léger, gracieux et souple est formé de feuilles claires, aplaties et aciculaires, disposées en spirales sur les rameaux mais tordues à leur base, ce qui les fait paraître disposées en deux rangs aplatis. Elles sont caduques, tombant à la mauvaise saison. Elles développent alors des couleurs orangées remarquables comme sur les photos ci-dessous.
+Les cyprès chauves vivant dans les marais se distinguent par la croissance de racines aériennes particulières, les pneumatophores. Ces organes lignifiés, qui peuvent atteindre 1,7 m de haut, émergent du sol ou de l'eau tout autour du tronc. Leur fonction semble être double. D'une part, ils assurent la fourniture en dioxygène du système racinaire immergé qui risquerait sans cela l'anoxie ; d'autre part ils permettent une meilleure stabilisation et un meilleur ancrage de l'arbre dans le sol très souvent imbibé d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est monoïque : cônes mâles et cônes femelles sont distincts, mais présents sur un même individu.
+Les cônes mâles sont regroupés sur de courts rameaux pendants. Ils sont beaucoup plus petits que les cônes femelles.
+Les cônes femelles immatures, verts, tournent au gris brun à maturité. Ils sont de forme globuleuse et mesurent de 2 à 3,5 cm de diamètre[réf. nécessaire]. Ils se désagrègent une fois tombés sur le sol. Ils sont composés de 10 à 15 écailles abritant chacune une à deux graines[réf. nécessaire]. Le cône femelle mûrit l'année de la fécondation.
+Les graines sont les plus grandes (de 5 à 10 mm de long) rencontrées dans la famille des Cupressacées[réf. nécessaire], et sont dispersées dans l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>États-Unis
-Le cyprès chauve, qui est l'arbre-emblème de l'État de Louisiane, est originaire du quart sud-est des États-Unis. On le considère souvent aux États-Unis comme le symbole des marais du sud. On le retrouve en Floride, Caroline du Sud, en Caroline du Nord, en Illinois, dans le Mississippi, en Louisiane et au Texas[1]. L'arbre apprécie l'ensoleillement et les terrains détrempés, marécageux ou régulièrement inondés. On le retrouve de ce fait le long des grands fleuves (Mississippi) où il pousse à l'écart d'autres espèces d'arbres... Ses peuplements sont appelés ciprières en français de Louisiane. Sur les terrains plus secs, il est accompagné du Chêne des Marais[1].
-Europe
-L'arbre est introduit en Europe en 1637, de même que le Platane d'Occident, par John Tradescant le Jeune au retour de son premier voyage en Virginie[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cyprès chauve, qui est l'arbre-emblème de l'État de Louisiane, est originaire du quart sud-est des États-Unis. On le considère souvent aux États-Unis comme le symbole des marais du sud. On le retrouve en Floride, Caroline du Sud, en Caroline du Nord, en Illinois, dans le Mississippi, en Louisiane et au Texas. L'arbre apprécie l'ensoleillement et les terrains détrempés, marécageux ou régulièrement inondés. On le retrouve de ce fait le long des grands fleuves (Mississippi) où il pousse à l'écart d'autres espèces d'arbres... Ses peuplements sont appelés ciprières en français de Louisiane. Sur les terrains plus secs, il est accompagné du Chêne des Marais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est introduit en Europe en 1637, de même que le Platane d'Occident, par John Tradescant le Jeune au retour de son premier voyage en Virginie.
 			Cyprès chauves près de Sukko dans le kraï de Krasnodar (Russie).
 			Le tronc d'un cyprès chauve remarquable à Harveng (Belgique).
 			Cyprès chauve du Jardin botanique de Metz
-France
-On peut en admirer :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taxodium_distichum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On peut en admirer :
 Auvergne-Rhône-Alpes :
 Plusieurs spécimens dans le parc du château d'Auzon en Haute-Loire plantés au bord de la rivière l'Ozon et fausse rivière anglaise vers 1840. Ils atteignent plus de 32 m de haut et 4,2 m de circonférence ;
 Plusieurs dizaines dans un étang à Saint-Baudille-de-la-Tour (Isle-Crémieu) en Isère à proximité de la cascade de la Roche et non loin de la ViaRhôna ;
@@ -605,7 +764,7 @@
 Plusieurs arbres se trouvent dans le parc du Conseil Départemental d'Auch, en bordure de l'étang.
 Deux spécimens à Montauban de grandes envergures. Un proche de la gare et du Canal et l'autre au niveau du jardin des plantes.
 Pays de la Loire
-Plusieurs spécimens peuvent être observés le long de l'Erdre sur la commune de la Chapelle-sur-Erdre[3].
+Plusieurs spécimens peuvent être observés le long de l'Erdre sur la commune de la Chapelle-sur-Erdre.
 Provence-Alpes-Côte d'Azur :
 Plusieurs spécimens à l'étang de Fontmerle à Mougins dans les Alpes-Maritimes ;
 Un spécimen datant des années 1930 dans le site archéologique de Vaison-la-Romaine en Vaucluse ;
